--- a/modelos/OBAOLE4423044/OBAOLE4423044_Sell Out_metricas.xlsx
+++ b/modelos/OBAOLE4423044/OBAOLE4423044_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45040</v>
       </c>
       <c r="B2" t="n">
-        <v>44.25636383359435</v>
+        <v>44.37814798573651</v>
       </c>
       <c r="C2" t="n">
-        <v>30.68458599142776</v>
+        <v>30.76642525911573</v>
       </c>
       <c r="D2" t="n">
-        <v>57.60709087474</v>
+        <v>57.95087344818868</v>
       </c>
       <c r="E2" t="n">
         <v>68</v>
@@ -496,13 +496,13 @@
         <v>45056</v>
       </c>
       <c r="B3" t="n">
-        <v>39.41887467970779</v>
+        <v>39.47283482080424</v>
       </c>
       <c r="C3" t="n">
-        <v>25.76889773344584</v>
+        <v>25.45537430357978</v>
       </c>
       <c r="D3" t="n">
-        <v>53.59502192682699</v>
+        <v>52.91420939135126</v>
       </c>
       <c r="E3" t="n">
         <v>103</v>
@@ -577,22 +577,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2303.159877698675</v>
+        <v>2296.846304144293</v>
       </c>
       <c r="C2" t="n">
-        <v>47.99124792812409</v>
+        <v>47.92542440233881</v>
       </c>
       <c r="D2" t="n">
-        <v>43.66238074334893</v>
+        <v>43.57450859672962</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4832317994659946</v>
+        <v>0.4820743853265599</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4832317994659946</v>
+        <v>0.4820743853265599</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6579500996624198</v>
+        <v>0.6560893604258429</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>

--- a/modelos/OBAOLE4423044/OBAOLE4423044_Sell Out_metricas.xlsx
+++ b/modelos/OBAOLE4423044/OBAOLE4423044_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,13 +476,13 @@
         <v>45040</v>
       </c>
       <c r="B2" t="n">
-        <v>44.37814798573651</v>
+        <v>44.37814819074956</v>
       </c>
       <c r="C2" t="n">
-        <v>30.76642525911573</v>
+        <v>31.97887968176968</v>
       </c>
       <c r="D2" t="n">
-        <v>57.95087344818868</v>
+        <v>58.12146720163594</v>
       </c>
       <c r="E2" t="n">
         <v>68</v>
@@ -496,19 +496,39 @@
         <v>45056</v>
       </c>
       <c r="B3" t="n">
-        <v>39.47283482080424</v>
+        <v>39.47283482052607</v>
       </c>
       <c r="C3" t="n">
-        <v>25.45537430357978</v>
+        <v>26.34759945835356</v>
       </c>
       <c r="D3" t="n">
-        <v>52.91420939135126</v>
+        <v>54.07050468850936</v>
       </c>
       <c r="E3" t="n">
         <v>103</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45049</v>
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B4" t="n">
+        <v>33.95958667207921</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19.56465617830793</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48.153591292089</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45055</v>
       </c>
     </row>
   </sheetData>
@@ -522,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,27 +594,53 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4035.700715740165</v>
+      </c>
+      <c r="C2" t="n">
+        <v>63.52716517947393</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63.52716517947393</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6167685939754751</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6167685939754751</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8917793382787604</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
-        <v>2296.846304144293</v>
-      </c>
-      <c r="C2" t="n">
-        <v>47.92542440233881</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43.57450859672962</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.4820743853265599</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.4820743853265599</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.6560893604258429</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="B3" t="n">
+        <v>422.8097314929774</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20.56233769523731</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.29071924066482</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.672501459540936</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.672501459540936</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.543004324668771</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/modelos/OBAOLE4423044/OBAOLE4423044_Sell Out_metricas.xlsx
+++ b/modelos/OBAOLE4423044/OBAOLE4423044_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>44.37814819074956</v>
       </c>
       <c r="C2" t="n">
-        <v>31.97887968176968</v>
+        <v>29.76830368841983</v>
       </c>
       <c r="D2" t="n">
-        <v>58.12146720163594</v>
+        <v>57.51716445328847</v>
       </c>
       <c r="E2" t="n">
         <v>68</v>
@@ -499,10 +499,10 @@
         <v>39.47283482052607</v>
       </c>
       <c r="C3" t="n">
-        <v>26.34759945835356</v>
+        <v>24.37860636096723</v>
       </c>
       <c r="D3" t="n">
-        <v>54.07050468850936</v>
+        <v>53.67802238618614</v>
       </c>
       <c r="E3" t="n">
         <v>103</v>
@@ -519,10 +519,10 @@
         <v>33.95958667207921</v>
       </c>
       <c r="C4" t="n">
-        <v>19.56465617830793</v>
+        <v>19.78043987390414</v>
       </c>
       <c r="D4" t="n">
-        <v>48.153591292089</v>
+        <v>48.25411282716298</v>
       </c>
       <c r="E4" t="n">
         <v>17</v>
